--- a/Datos/Database by set/Set by name/Xlsx sets/Strixhaven School of Mages (STX).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Strixhaven School of Mages (STX).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set by name/Xlsx sets/Strixhaven School of Mages (STX).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Strixhaven School of Mages (STX).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A127"/>
+  <dimension ref="A1:A383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,882 +444,2674 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abundant Harvest</t>
+          <t>Academic Dispute</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Abundant Harvest</t>
+          <t>Academic Probation</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adventurous Impulse</t>
+          <t>Academic Probation</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Adventurous Impulse</t>
+          <t>Access Tunnel</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Agonizing Remorse</t>
+          <t>Accomplished Alchemist</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Agonizing Remorse</t>
+          <t>Accomplished Alchemist</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Approach of the Second Sun</t>
+          <t>Aether Helix</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Approach of the Second Sun</t>
+          <t>Ageless Guardian</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Blue Sun's Zenith</t>
+          <t>Arcane Subtraction</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Blue Sun's Zenith</t>
+          <t>Archmage Emeritus</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brainstorm</t>
+          <t>Archmage Emeritus</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brainstorm</t>
+          <t>Archmage Emeritus</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Channel</t>
+          <t>Archway Commons</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Channel</t>
+          <t>Ardent Dustspeaker</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chaos Warp</t>
+          <t>Arrogant Poet</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chaos Warp</t>
+          <t>Augmenter Pugilist // Echoing Equation</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Claim the Firstborn</t>
+          <t>Augmenter Pugilist // Echoing Equation</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Claim the Firstborn</t>
+          <t>Baleful Mastery</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Compulsive Research</t>
+          <t>Baleful Mastery</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Compulsive Research</t>
+          <t>Basic Conjuration</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Counterspell</t>
+          <t>Basic Conjuration</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Counterspell</t>
+          <t>Bayou Groff</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Crux of Fate</t>
+          <t>Beaming Defiance</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Crux of Fate</t>
+          <t>Beledros Witherbloom</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cultivate</t>
+          <t>Beledros Witherbloom</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cultivate</t>
+          <t>Biblioplex Assistant</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dark Ritual</t>
+          <t>Big Play</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dark Ritual</t>
+          <t>Biomathematician</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Day of Judgment</t>
+          <t>Blade Historian</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Day of Judgment</t>
+          <t>Blade Historian</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Defiant Strike</t>
+          <t>Blex, Vexing Pest // Search for Blex</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Defiant Strike</t>
+          <t>Blex, Vexing Pest // Search for Blex</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Demonic Tutor</t>
+          <t>Blood Age General</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>悪魔の教示者</t>
+          <t>Blood Researcher</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Despark</t>
+          <t>Blot Out the Sky</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Despark</t>
+          <t>Blot Out the Sky</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Divine Gambit</t>
+          <t>Body of Research</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Divine Gambit</t>
+          <t>Body of Research</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Doom Blade</t>
+          <t>Bookwurm</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Doom Blade</t>
+          <t>Brackish Trudge</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Duress</t>
+          <t>Burrog Befuddler</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Duress</t>
+          <t>Bury in Books</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Electrolyze</t>
+          <t>Callous Bloodmage</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Electrolyze</t>
+          <t>Callous Bloodmage</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Eliminate</t>
+          <t>Campus Guide</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Eliminate</t>
+          <t>Charge Through</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ephemerate</t>
+          <t>Clever Lumimancer</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>儚い存在</t>
+          <t>Closing Statement</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Faithless Looting</t>
+          <t>Codie, Vociferous Codex</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Faithless Looting</t>
+          <t>Codie, Vociferous Codex</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gift of Estates</t>
+          <t>Cogwork Archivist</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gift of Estates</t>
+          <t>Combat Professor</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gods Willing</t>
+          <t>Confront the Past</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gods Willing</t>
+          <t>Confront the Past</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Grapeshot</t>
+          <t>Conspiracy Theorist</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Grapeshot</t>
+          <t>Conspiracy Theorist</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Growth Spiral</t>
+          <t>Containment Breach</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Growth Spiral</t>
+          <t>Crackle with Power</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Harmonize</t>
+          <t>Crackle with Power</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Harmonize</t>
+          <t>Cram Session</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Increasing Vengeance</t>
+          <t>Creative Outburst</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Increasing Vengeance</t>
+          <t>Crushing Disappointment</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Infuriate</t>
+          <t>Culling Ritual</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Infuriate</t>
+          <t>Culling Ritual</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Inquisition of Kozilek</t>
+          <t>Culmination of Studies</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Inquisition of Kozilek</t>
+          <t>Culmination of Studies</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Krosan Grip</t>
+          <t>Curate</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Krosan Grip</t>
+          <t>Daemogoth Titan</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lightning Bolt</t>
+          <t>Daemogoth Titan</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lightning Bolt</t>
+          <t>Daemogoth Woe-Eater</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lightning Helix</t>
+          <t>Deadly Brew</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lightning Helix</t>
+          <t>Decisive Denial</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mana Tithe</t>
+          <t>Decisive Denial</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mana Tithe</t>
+          <t>Defend the Campus</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Memory Lapse</t>
+          <t>Detention Vortex</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Memory Lapse</t>
+          <t>Devastating Mastery</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mind's Desire</t>
+          <t>Devastating Mastery</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mind's Desire</t>
+          <t>Devouring Tendrils</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mizzix's Mastery</t>
+          <t>Dina, Soul Steeper</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mizzix's Mastery</t>
+          <t>Divide by Zero</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Natural Order</t>
+          <t>Double Major</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Natural Order</t>
+          <t>Double Major</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Negate</t>
+          <t>Draconic Intervention</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Negate</t>
+          <t>Draconic Intervention</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Opt</t>
+          <t>Dragon's Approach</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>選択</t>
+          <t>Dragonsguard Elite</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Primal Command</t>
+          <t>Dragonsguard Elite</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Primal Command</t>
+          <t>Dragonsguard Elite</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Putrefy</t>
+          <t>Dramatic Finale</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Putrefy</t>
+          <t>Dramatic Finale</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Regrowth</t>
+          <t>Dream Strix</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Regrowth</t>
+          <t>Dream Strix</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Revitalize</t>
+          <t>Dueling Coach</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Revitalize</t>
+          <t>Eager First-Year</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Shock</t>
+          <t>Ecological Appreciation</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Shock</t>
+          <t>Ecological Appreciation</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sign in Blood</t>
+          <t>Efreet Flamepainter</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sign in Blood</t>
+          <t>Efreet Flamepainter</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Snakeskin Veil</t>
+          <t>Elemental Expressionist</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Snakeskin Veil</t>
+          <t>Elemental Expressionist</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Stone Rain</t>
+          <t>Elemental Masterpiece</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Stone Rain</t>
+          <t>Elemental Summoning</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Strategic Planning</t>
+          <t>Elite Spellbinder</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Strategic Planning</t>
+          <t>Elite Spellbinder</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Swords to Plowshares</t>
+          <t>Emergent Sequence</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>剣を鍬に</t>
+          <t>Enthusiastic Study</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Tainted Pact</t>
+          <t>Environmental Sciences</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Tainted Pact</t>
+          <t>Essence Infusion</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Teferi's Protection</t>
+          <t>Eureka Moment</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Teferi's Protection</t>
+          <t>Excavated Wall</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Tendrils of Agony</t>
+          <t>Exhilarating Elocution</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tendrils of Agony</t>
+          <t>Expanded Anatomy</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Tezzeret's Gambit</t>
+          <t>Expel</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Tezzeret's Gambit</t>
+          <t>Explosive Welcome</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Thrill of Possibility</t>
+          <t>Exponential Growth</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Thrill of Possibility</t>
+          <t>Exponential Growth</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Time Warp</t>
+          <t>Expressive Iteration</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Time Warp</t>
+          <t>Expressive Iteration</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Urza's Rage</t>
+          <t>Extus, Oriq Overlord // Awaken the Blood Avatar</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Urza's Rage</t>
+          <t>Extus, Oriq Overlord // Awaken the Blood Avatar</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Village Rites</t>
+          <t>Eyetwitch</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Village Rites</t>
+          <t>Fervent Mastery</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Weather the Storm</t>
+          <t>Fervent Mastery</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Weather the Storm</t>
+          <t>Field Trip</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Whirlwind Denial</t>
+          <t>First Day of Class</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Whirlwind Denial</t>
+          <t>Flamescroll Celebrant // Revel in Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Flamescroll Celebrant // Revel in Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Flunk</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fortifying Draught</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Fractal Summoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Frostboil Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Frostboil Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Frost Trickster</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Fuming Effigy</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Furycalm Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Furycalm Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Galazeth Prismari</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Galazeth Prismari</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Gnarled Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Gnarled Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Go Blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Golden Ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Grinning Ignus</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guiding Voice</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hall Monitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hall of Oracles</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hall of Oracles</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Harness Infinity</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Harness Infinity</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Heated Debate</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Hofri Ghostforge</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Hofri Ghostforge</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Honor Troll</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Humiliate</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Hunt for Specimens</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Igneous Inspiration</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Illuminate History</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Illuminate History</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Illustrious Historian</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Infuse with Vitality</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Ingenious Mastery</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Ingenious Mastery</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Inkling Summoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Introduction to Annihilation</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Introduction to Prophecy</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jadzi, Oracle of Arcavios // Journey to the Oracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Jadzi, Oracle of Arcavios // Journey to the Oracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Karok Wrangler</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Kasmina, Enigma Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Kasmina, Enigma Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Kelpie Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Kianne, Dean of Substance // Imbraham, Dean of Theory</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Kianne, Dean of Substance // Imbraham, Dean of Theory</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Killian, Ink Duelist</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Lash of Malice</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Leech Fanatic</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Leonin Lightscribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Leonin Lightscribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Letter of Acceptance</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Leyline Invocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Lorehold Apprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Lorehold Campus</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Lorehold Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Lorehold Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Lorehold Excavation</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Lorehold Pledgemage</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Maelstrom Muse</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mage Duel</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mage Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mage Hunters' Onslaught</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Magma Opus</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Magma Opus</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Make Your Mark</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Manifestation Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Manifestation Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mascot Exhibition</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mascot Exhibition</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mascot Interception</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Master Symmetrist</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Mavinda, Students' Advocate</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Mavinda, Students' Advocate</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Mentor's Guidance</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Mercurial Transformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mila, Crafty Companion // Lukka, Wayward Bonder</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mila, Crafty Companion // Lukka, Wayward Bonder</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Moldering Karok</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mortality Spear</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mortality Spear</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Necroblossom Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Necroblossom Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Necrotic Fumes</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Needlethorn Drake</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Novice Dissector</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oggyar Battle-Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oriq Loremage</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oriq Loremage</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Overgrown Arch</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Owlin Shieldmage</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Pestilent Cauldron // Restorative Burst</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Pestilent Cauldron // Restorative Burst</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Pest Summoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Pigment Storm</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Pilgrim of the Ages</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Pillardrop Rescuer</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Pillardrop Warden</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Plargg, Dean of Chaos // Augusta, Dean of Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Plargg, Dean of Chaos // Augusta, Dean of Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Plumb the Forbidden</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Poet's Quill</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Poet's Quill</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Pop Quiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Practical Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Prismari Apprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Prismari Campus</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Prismari Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Prismari Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Prismari Pledgemage</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Professor of Symbology</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Professor of Zoomancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Professor Onyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Professor Onyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Professor's Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Promising Duskmage</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Quandrix Apprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Quandrix Campus</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Quandrix Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Quandrix Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Quandrix Cultivator</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Quandrix Pledgemage</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Quintorius, Field Historian</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Radiant Scrollwielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Radiant Scrollwielder</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Reckless Amplimancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Reconstruct History</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Reduce to Memory</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Reflective Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Relic Sloth</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Resculpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Retriever Phoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Retriever Phoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Returned Pastcaller</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Rip Apart</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Rip Apart</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Rise of Extus</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Rootha, Mercurial Artist</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Rowan, Scholar of Sparks // Will, Scholar of Frost</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Rowan, Scholar of Sparks // Will, Scholar of Frost</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Rushed Rebirth</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Rushed Rebirth</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Scurrid Colony</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Secret Rendezvous</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sedgemoor Witch</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Sedgemoor Witch</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Selfless Glyphweaver // Deadly Vanity</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Selfless Glyphweaver // Deadly Vanity</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Semester's End</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Semester's End</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Serpentine Curve</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Shadewing Laureate</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Shadrix Silverquill</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Shadrix Silverquill</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Shaile, Dean of Radiance // Embrose, Dean of Shadow</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Shaile, Dean of Radiance // Embrose, Dean of Shadow</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Shineshadow Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Shineshadow Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Show of Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Silverquill Apprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Silverquill Campus</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Silverquill Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Silverquill Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Silverquill Pledgemage</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Silverquill Silencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Silverquill Silencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Snow Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Solve the Equation</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Soothsayer Adept</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Sparring Regimen</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Sparring Regimen</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Spectacle Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Specter of the Fens</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Spell Satchel</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Spined Karok</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Spirit Summoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Spiteful Squad</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Springmane Cervin</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Square Up</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Star Pupil</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Start from Scratch</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Stonebinder's Familiar</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Stonebound Mentor</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Stonerise Spirit</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Storm-Kiln Artist</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Strict Proctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Strict Proctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Strixhaven Stadium</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Strixhaven Stadium</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Study Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Sudden Breakthrough</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Symmetry Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Tanazir Quandrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Tanazir Quandrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Tangletrap</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Teach by Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Teachings of the Archaics</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Teachings of the Archaics</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Team Pennant</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Tempted by the Oriq</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Tempted by the Oriq</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Tend the Pests</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Tenured Inkcaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Test of Talents</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>The Biblioplex</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>The Biblioplex</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Thrilling Discovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Thunderous Orator</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Tome Shredder</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Torrent Sculptor // Flamethrower Sonata</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Torrent Sculptor // Flamethrower Sonata</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Twinscroll Shaman</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Umbral Juke</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Unwilling Ingredient</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Uvilda, Dean of Perfection // Nassari, Dean of Expression</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Uvilda, Dean of Perfection // Nassari, Dean of Expression</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Valentin, Dean of the Vein // Lisette, Dean of the Root</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Valentin, Dean of the Vein // Lisette, Dean of the Root</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Vanishing Verse</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Vanishing Verse</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Velomachus Lorehold</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Velomachus Lorehold</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Venerable Warsinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Venerable Warsinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Verdant Mastery</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Verdant Mastery</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Vineglimmer Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Vineglimmer Snarl</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Vortex Runner</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Wandering Archaic // Explore the Vastlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Wandering Archaic // Explore the Vastlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Waterfall Aerialist</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Witherbloom Apprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Witherbloom Campus</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Witherbloom Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Witherbloom Command</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Witherbloom Pledgemage</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Wormhole Serpent</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Zephyr Boots</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Zimone, Quandrix Prodigy</t>
         </is>
       </c>
     </row>
